--- a/Module 4/Quỹ.xlsx
+++ b/Module 4/Quỹ.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/Working/Codegym/A0121I1---BuiThanhBao/Module 4/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{08C0F818-65DF-4D44-B619-C4805C7765A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3CDC9661-B277-8848-8F86-F4AC8021206E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="15540" yWindow="2560" windowWidth="28040" windowHeight="17440" xr2:uid="{176B4295-C0D6-5E44-B1ED-59DFD5C4093A}"/>
+    <workbookView xWindow="46740" yWindow="4340" windowWidth="28040" windowHeight="17440" xr2:uid="{176B4295-C0D6-5E44-B1ED-59DFD5C4093A}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="10">
   <si>
     <t>Lê Hồng Đức</t>
   </si>
@@ -56,6 +56,12 @@
   </si>
   <si>
     <t>Lí do</t>
+  </si>
+  <si>
+    <t>Trương Gia Huy</t>
+  </si>
+  <si>
+    <t>4đ</t>
   </si>
 </sst>
 </file>
@@ -408,10 +414,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BA8FE123-322E-C247-ABCD-16E8A19FBB03}">
-  <dimension ref="A2:C7"/>
+  <dimension ref="A2:E8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E20" sqref="E20"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -421,15 +427,21 @@
     <col min="3" max="3" width="18.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B2" s="1">
         <v>44456</v>
       </c>
       <c r="C2" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D2" s="1">
+        <v>44461</v>
+      </c>
+      <c r="E2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>0</v>
       </c>
@@ -440,7 +452,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -451,7 +463,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -462,7 +474,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>2</v>
       </c>
@@ -473,7 +485,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>1</v>
       </c>
@@ -482,6 +494,17 @@
       </c>
       <c r="C7" t="s">
         <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>8</v>
+      </c>
+      <c r="D8">
+        <v>5</v>
+      </c>
+      <c r="E8" t="s">
+        <v>9</v>
       </c>
     </row>
   </sheetData>
